--- a/doc/盤點SourceCode第三方套件(stockholder).xlsx
+++ b/doc/盤點SourceCode第三方套件(stockholder).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>套件名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,98 +51,594 @@
     <t>commons-collections.jar</t>
   </si>
   <si>
+    <t>客製類別庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBM 提供的一個 Java JAR 檔案，通常用於支援 IBM 軟體產品的功能。</t>
+  </si>
+  <si>
+    <r>
+      <t>Apache Commons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 提供的一個 Java 工具庫，專門用於簡化對 JavaBeans 的操作。它通過提供靈活的 API，允許開發者在運行時輕鬆地存取和修改 JavaBean 屬性，極大地提高了開發效率。</t>
+    </r>
+  </si>
+  <si>
+    <t>Apache Commons 開發的一個輕量級工具庫，專門用於實現數據的編解碼操作。這個版本提供了多種常見的編解碼方法，適用於 Java 應用中需要處理編碼和數據完整性的場景。</t>
+  </si>
+  <si>
+    <t>1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>commons-digester.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>commons-fileupload.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>commons-lang.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擴展了 Java Collections Framework（集合框架）的功能。它提供了許多額外的集合類型和實用工具，能幫助開發者更高效地處理數據結構。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用於簡化 XML 文檔的解析和處理。它基於 SAX（Simple API for XML）解析器工作，並將 XML 數據映射到 Java 對象中，非常適合處理配置文件或結構化數據。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專門用於處理基於 Servlet 的文件上傳功能。它支援 HTML 表單的多部分（multipart）數據解析，並提供簡單的 API，方便開發者實現文件上傳和處理功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">用於擴展 Java 標準庫中 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>java.lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 包的功能。它提供了一系列強大的工具類，簡化了常見的開發任務，如字串操作、數學運算、物件操作等，是 Java 開發者的常用工具之一。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>commons-logging.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Commons 提供的一個通用日誌記錄框架，目的是為 Java 應用程序提供一個統一的日誌記錄接口，並支持多種底層日誌記錄實現（例如 Log4j、Java Util Logging 等）。</t>
   </si>
   <si>
     <t>displaytag-1.2.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java 開源工具庫，專門用於在基於 JSP 的 Web 應用中生成動態 HTML 表格。它簡化了表格的顯示、分頁、排序、匯出等功能，適合用於處理大規模數據集的網頁展示。</t>
   </si>
   <si>
     <t>displaytag-export-poi-1.2.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DisplayTag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 工具庫的一個擴展模組，專門用於支援將 DisplayTag 表格數據匯出為 Microsoft Excel 格式。該模組基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache POI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，提供了將動態生成的表格數據直接轉換為 Excel 文件的功能。</t>
+    </r>
   </si>
   <si>
     <t>docreport.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一個可能被用於生成和處理文檔報告的 Java 庫，主要用途是簡化基於模板的動態文檔生成流程。它通常適合用於企業報表、文件自動化生成系統等場景。</t>
   </si>
   <si>
     <t>itext-1.3.1.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專門用於生成和操作 PDF 文檔。iText 是功能強大的 PDF 處理工具，可用於創建、修改、讀取 PDF 文件，適合各種企業應用中的報表生成與文檔處理需求。</t>
   </si>
   <si>
     <t>itext-1.5.2.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iTextAsian.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iText 庫的一個附加模組，專門用於支援亞洲語言（如中文、日文、韓文）的 PDF 文檔生成。它提供了一些亞洲字體的支持，使得在生成多語言 PDF 文件時更加方便。</t>
   </si>
   <si>
     <t>itextasian-1.5.2.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>iText</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PDF 庫的一個附加模組，專為支持亞洲語言（例如中文、日文、韓文）的 PDF 文檔生成而設計。它提供亞洲字體和字符編碼的支持，使得 PDF 的多語言文檔生成更加簡單和高效。</t>
+    </r>
   </si>
   <si>
     <t>iTextAsianCmaps.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>iText</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 庫的一個專用模組，用於支持亞洲語言（例如中文、日文和韓文）字符的編碼映射（CMap），以實現高品質的 PDF 文檔生成。該模組特別適合處理需要嵌入 CJK 字體的 PDF 文件，確保正確顯示亞洲字符。</t>
+    </r>
   </si>
   <si>
     <t>jasperreports-5.1.0.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JasperReports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的核心庫，JasperReports 是一個流行的開源 Java 報表生成工具，用於生成動態內容的報表和文件，支持多種輸出格式如 PDF、Excel、HTML 和 CSV 等。</t>
+    </r>
   </si>
   <si>
     <t>jcommon-1.0.6.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jfreechart-1.0.3.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用於創建各種圖表。它廣泛應用於報表、數據分析和數據可視化應用中，支持多種類型的圖表。</t>
+  </si>
+  <si>
+    <r>
+      <t>為圖表應用程序提供了一些輔助功能。它包含通用的實用程序類、數據結構和其他工具，通常用於支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JFreeChart </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的運行。
+通常與 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JFreeChart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 一起使用。該庫提供了圖表和數據處理應用的輔助功能，例如日期處理、資源管理和通用工具類。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jstl.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JSTL（JavaServer Pages Standard Tag Library）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的核心實現庫，為 Java Web 開發中的 JSP 提供了一套標準化的標籤庫。這些標籤簡化了 JSP 頁面中常見的邏輯處理，讓開發者專注於應用邏輯，而不必編寫大量 Java 代碼。</t>
+    </r>
   </si>
   <si>
     <t>jstl-1.2.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JavaServer Pages Standard Tag Library (JSTL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的核心實現庫，適用於 JSP 應用中的標準標籤支持。JSTL 旨在簡化 JSP 頁面中邏輯處理和數據顯示的複雜性，提供一套易於使用的標籤語法，取代 JSP 內部大量的腳本代碼。</t>
+    </r>
+  </si>
+  <si>
+    <t>jxl.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JExcelAPI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的核心實現庫，用於操作 Microsoft Excel 文件的開源 Java 庫。它支持 Excel 97-2003 文件格式（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.xls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>），提供讀取、寫入和修改 Excel 文件的功能。</t>
+    </r>
   </si>
   <si>
     <t>jtds-1.2.2.jar</t>
-  </si>
-  <si>
-    <t>jxl.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">專門用於連接 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft SQL Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sybase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 資料庫。作為一個高效且穩定的驅動，它是許多 Java 應用中操作這些資料庫的首選之一。</t>
+    </r>
   </si>
   <si>
     <t>log4j-1.2.13.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log4j 是一個功能強大且廣泛使用的開源日誌記錄框架，專門為 Java 應用提供靈活的日誌管理功能。它允許開發者將日誌記錄到多種目標（例如控制台、文件、數據庫等），並支持多級別的日誌過濾。</t>
   </si>
   <si>
     <t>mail.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaMail API 的實現庫，專門用於幫助 Java 應用程序進行電子郵件操作。它支持多種郵件協議（如 SMTP、POP3 和 IMAP），適用於開發與電子郵件相關的應用，如郵件通知系統、郵件客戶端等。</t>
   </si>
   <si>
     <t>poi-3.7-20101029.jar</t>
-  </si>
-  <si>
-    <t>RJCBRT.dll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache POI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的一個版本，專門用於處理 Microsoft Office 文件的開源 Java 庫。Apache POI 提供了對 Excel、Word、PowerPoint 等文件格式的讀取和寫入支持，適合處理辦公自動化的 Java 應用。</t>
+    </r>
   </si>
   <si>
     <t>RJCBRT.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一個與 IBM 相關的 Java 工具庫，可能屬於 IBM Rational 或其他 IBM 軟件產品的組件之一。該庫通常用於支持 IBM 軟件產品中的特定功能，例如報告生成、數據處理或工具集成。</t>
   </si>
   <si>
     <t>sqljdbc4.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Microsoft JDBC Driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的一個版本，專門用於連接 Microsoft SQL Server 的 Java 應用。它支持 JDBC 4.0 規範，適用於 Java SE 6 及更高版本。</t>
+    </r>
   </si>
   <si>
     <t>standard.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JSTL (JavaServer Pages Standard Tag Library)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 相關的一個核心庫。它為 JSP 提供了一套標準的標籤集合，簡化了常見的邏輯操作和顯示功能，減少了 JSP 頁面中嵌入的 Java 程式碼，使頁面更加清晰易於維護。</t>
+    </r>
   </si>
   <si>
     <t>struts.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用於構建基於 Java 的 MVC（Model-View-Controller）Web 應用程序。Struts 是一個經典的 Web 框架，幫助開發者更高效地管理請求處理、業務邏輯和視圖渲染。</t>
   </si>
   <si>
     <t>struts-el.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache Struts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 框架的一個擴展庫，旨在支持基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSP Expression Language (EL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的標籤功能。它將 Struts 的標籤庫與 JSP 的表達式語言結合，使得在 JSP 頁面中操作數據和屬性更加簡單和直觀。</t>
+    </r>
   </si>
   <si>
     <t>tlgbean.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客製類別庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,10 +730,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -338,13 +841,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -653,10 +1156,10 @@
   <dimension ref="A1:G220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="37.375" style="7" customWidth="1"/>
     <col min="2" max="2" width="14.25" style="2" customWidth="1"/>
@@ -666,7 +1169,7 @@
     <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -683,861 +1186,973 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
       <c r="D6" s="28"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="C19" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="66">
+      <c r="A20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="C20" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="C23" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="26"/>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>30</v>
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
       </c>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
-        <v>31</v>
+        <v>68</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="7" t="s">
-        <v>32</v>
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="31"/>
+        <v>72</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>73</v>
+      </c>
       <c r="D30" s="17"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="31"/>
+        <v>74</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="D31" s="17"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="31"/>
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
       <c r="D32" s="17"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="31"/>
+        <v>78</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>79</v>
+      </c>
       <c r="D33" s="17"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>81</v>
+      </c>
       <c r="D34" s="17"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>38</v>
-      </c>
+    <row r="35" spans="1:5" ht="17.25">
       <c r="C35" s="9"/>
       <c r="D35" s="17"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="18.75">
       <c r="C36" s="10"/>
       <c r="D36" s="17"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="D37" s="17"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="D38" s="17"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="D39" s="17"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="D40" s="17"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="D41" s="17"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="17.25">
       <c r="C42" s="9"/>
       <c r="D42" s="17"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="D44" s="17"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="D45" s="17"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="D47" s="17"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="D48" s="17"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5">
       <c r="D49" s="17"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5">
       <c r="D50" s="17"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5">
       <c r="D51" s="17"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5">
       <c r="D52" s="17"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5">
       <c r="D53" s="17"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5">
       <c r="D54" s="17"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5">
       <c r="D55" s="17"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5">
       <c r="D56" s="17"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:5">
       <c r="D61" s="18"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:5">
       <c r="D62" s="18"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:5">
       <c r="D63" s="17"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:5">
       <c r="D64" s="17"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5">
       <c r="D65" s="17"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5">
       <c r="D66" s="17"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5">
       <c r="D68" s="17"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="71" spans="3:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:5" ht="17.25" thickBot="1">
       <c r="D71" s="17"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="3:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:5" ht="17.25" thickBot="1">
       <c r="D72" s="19"/>
       <c r="E72" s="15"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5">
       <c r="C73" s="11"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5">
       <c r="C75" s="11"/>
       <c r="D75" s="17"/>
       <c r="E75" s="16"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5">
       <c r="C76" s="11"/>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:5">
       <c r="D78" s="17"/>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:5">
       <c r="D79" s="17"/>
       <c r="E79" s="16"/>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:5">
       <c r="D80" s="17"/>
       <c r="E80" s="16"/>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:5">
       <c r="D81" s="17"/>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:5">
       <c r="D82" s="17"/>
       <c r="E82" s="16"/>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:5">
       <c r="C83" s="12"/>
       <c r="D83" s="17"/>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5">
       <c r="D84" s="17"/>
       <c r="E84" s="16"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:5">
       <c r="D85" s="17"/>
       <c r="E85" s="16"/>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:5">
       <c r="D86" s="17"/>
       <c r="E86" s="16"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:5">
       <c r="C87" s="12"/>
       <c r="D87" s="17"/>
       <c r="E87" s="16"/>
     </row>
-    <row r="88" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:5" ht="19.5" customHeight="1">
       <c r="D88" s="17"/>
       <c r="E88" s="16"/>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:5">
       <c r="D89" s="17"/>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:5">
       <c r="D91" s="17"/>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:5">
       <c r="D93" s="17"/>
       <c r="E93" s="16"/>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:5">
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5">
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5">
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" ht="27" customHeight="1"/>
+    <row r="100" spans="2:5" ht="21" customHeight="1"/>
+    <row r="101" spans="2:5">
       <c r="C101" s="4"/>
       <c r="D101" s="17"/>
       <c r="E101" s="16"/>
     </row>
-    <row r="102" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" ht="31.5" customHeight="1">
       <c r="C102" s="4"/>
       <c r="D102" s="17"/>
       <c r="E102" s="16"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5">
       <c r="C103" s="4"/>
       <c r="D103" s="17"/>
       <c r="E103" s="16"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C104" s="33"/>
+    <row r="104" spans="2:5">
+      <c r="C104" s="32"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="33"/>
+    <row r="105" spans="2:5">
+      <c r="C105" s="32"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5">
       <c r="C106" s="14"/>
       <c r="D106" s="17"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5">
       <c r="C107" s="14"/>
       <c r="D107" s="17"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5">
       <c r="B108" s="5"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="16"/>
     </row>
-    <row r="109" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" ht="23.25" customHeight="1"/>
+    <row r="110" spans="2:5" ht="18.75" customHeight="1">
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" ht="15" customHeight="1">
       <c r="C111" s="4"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5">
       <c r="B112" s="5"/>
       <c r="D112" s="17"/>
       <c r="E112" s="16"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5">
       <c r="D113" s="17"/>
       <c r="E113" s="16"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5">
       <c r="D115" s="17"/>
       <c r="E115" s="16"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5">
       <c r="D116" s="17"/>
       <c r="E116" s="16"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5">
       <c r="D117" s="17"/>
       <c r="E117" s="16"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5">
       <c r="D118" s="17"/>
       <c r="E118" s="16"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5">
       <c r="D119" s="17"/>
       <c r="E119" s="16"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5">
       <c r="D120" s="17"/>
       <c r="E120" s="16"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5">
       <c r="D121" s="17"/>
       <c r="E121" s="16"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5">
       <c r="D122" s="17"/>
       <c r="E122" s="16"/>
     </row>
-    <row r="123" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" ht="16.5" customHeight="1">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5">
       <c r="D124" s="17"/>
       <c r="E124" s="16"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5">
       <c r="D125" s="17"/>
       <c r="E125" s="16"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5">
       <c r="B126" s="5"/>
       <c r="C126" s="4"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5">
       <c r="D127" s="17"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5">
       <c r="D128" s="17"/>
       <c r="E128" s="16"/>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5">
       <c r="D129" s="17"/>
       <c r="E129" s="16"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5">
       <c r="B130" s="5"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="16"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5">
       <c r="B131" s="5"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="16"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="16"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5">
       <c r="C135" s="4"/>
       <c r="D135" s="17"/>
       <c r="E135" s="16"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5">
       <c r="C136" s="4"/>
       <c r="D136" s="17"/>
       <c r="E136" s="16"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5">
       <c r="B137" s="5"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="16"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5">
       <c r="B138" s="5"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="16"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="16"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="16"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="16"/>
     </row>
-    <row r="142" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" ht="17.25" thickBot="1">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="16"/>
     </row>
-    <row r="143" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" ht="17.25" thickBot="1">
       <c r="B143" s="5"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="15"/>
     </row>
-    <row r="144" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" ht="17.25" thickBot="1">
       <c r="B144" s="5"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="15"/>
     </row>
-    <row r="145" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" ht="17.25" thickBot="1">
       <c r="D145" s="4"/>
       <c r="E145" s="15"/>
     </row>
-    <row r="146" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" ht="17.25" thickBot="1">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="15"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5">
       <c r="B148" s="5"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="16"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5">
       <c r="B149" s="5"/>
       <c r="C149" s="20"/>
       <c r="D149" s="4"/>
       <c r="E149" s="16"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5">
       <c r="C151" s="4"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5">
       <c r="C152" s="4"/>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5">
       <c r="C153" s="4"/>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5">
       <c r="B154" s="5"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5">
       <c r="B155" s="5"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5">
       <c r="B156" s="5"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5">
       <c r="B157" s="5"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5">
       <c r="C158" s="4"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5">
       <c r="C159" s="4"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="16"/>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:5">
       <c r="C161" s="4"/>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:5">
       <c r="C162" s="4"/>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:5">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="16"/>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:5">
       <c r="C164" s="4"/>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:5">
       <c r="C165" s="4"/>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:5">
       <c r="C166" s="4"/>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:5">
       <c r="C167" s="4"/>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:5">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="16"/>
     </row>
-    <row r="169" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:5" ht="17.25">
       <c r="C169" s="9"/>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:5">
       <c r="C170" s="4"/>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:5">
       <c r="C171" s="4"/>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:5">
       <c r="C172" s="4"/>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:5">
       <c r="C173" s="4"/>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:5">
       <c r="C174" s="4"/>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:5">
       <c r="C175" s="4"/>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:5">
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="C177" s="4"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="C178" s="4"/>
       <c r="D178"/>
     </row>
-    <row r="179" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="17.25">
       <c r="B179" s="5"/>
       <c r="C179" s="9"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="17.25">
       <c r="C180" s="9"/>
       <c r="D180" s="6"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="17.25">
       <c r="C181" s="9"/>
       <c r="D181" s="6"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="17.25">
       <c r="B182" s="5"/>
       <c r="C182" s="9"/>
       <c r="D182" s="6"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="17.25">
       <c r="C183" s="9"/>
       <c r="D183" s="6"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="17.25">
       <c r="C184" s="9"/>
       <c r="D184" s="6"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="C185" s="4"/>
       <c r="D185" s="6"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="17.25">
       <c r="C186" s="9"/>
       <c r="D186" s="6"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="C187" s="4"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="B188" s="5"/>
       <c r="C188" s="21"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="D189" s="17"/>
     </row>
-    <row r="190" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="17.25">
       <c r="A190" s="13"/>
       <c r="B190" s="5"/>
       <c r="C190" s="9"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
       <c r="D191" s="6"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="D192" s="6"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:7" ht="17.25">
       <c r="B193" s="5"/>
       <c r="C193" s="9"/>
       <c r="D193" s="6"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:7" ht="17.25">
       <c r="B194" s="5"/>
       <c r="C194" s="9"/>
       <c r="D194" s="6"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7">
       <c r="C195" s="13"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7">
       <c r="C196" s="4"/>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7">
       <c r="C197" s="4"/>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7">
       <c r="B198" s="5"/>
       <c r="C198" s="24"/>
       <c r="D198" s="13"/>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7">
       <c r="C199" s="4"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7">
       <c r="C200" s="13"/>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7">
       <c r="C201" s="13"/>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7">
       <c r="B202" s="5"/>
       <c r="C202" s="25"/>
       <c r="D202" s="6"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7">
       <c r="B203" s="5"/>
       <c r="C203" s="25"/>
       <c r="D203" s="6"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:7" ht="17.25">
       <c r="B204" s="5"/>
       <c r="C204" s="9"/>
       <c r="D204" s="6"/>
@@ -1545,76 +2160,76 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:7" ht="17.25">
       <c r="B205" s="5"/>
       <c r="C205" s="9"/>
     </row>
-    <row r="206" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:7" ht="17.25">
       <c r="B206" s="5"/>
       <c r="C206" s="9"/>
       <c r="D206" s="6"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:7" ht="17.25">
       <c r="B207" s="5"/>
       <c r="C207" s="9"/>
       <c r="D207" s="6"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:7" ht="17.25">
       <c r="B208" s="5"/>
       <c r="C208" s="9"/>
       <c r="D208" s="6"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" ht="17.25">
       <c r="C209" s="9"/>
       <c r="D209" s="6"/>
       <c r="E209" s="3"/>
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6">
       <c r="B210" s="5"/>
       <c r="C210" s="27"/>
       <c r="D210" s="28"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="B211" s="5"/>
       <c r="C211"/>
       <c r="D211" s="28"/>
     </row>
-    <row r="212" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="17.25">
       <c r="C212" s="9"/>
       <c r="D212" s="6"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="B213" s="29"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="B215" s="29"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="D216" s="6"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
     </row>
-    <row r="218" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" s="1" customFormat="1">
       <c r="A218" s="13"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
       <c r="D218" s="6"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="22.5" customHeight="1">
       <c r="D219" s="23"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6">
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
       <c r="D220" s="22"/>
